--- a/Dokumente/02_Arbeitsbereich/04_Anforderungsspezifikation/Dialogbeschreibungen/Start_Fenster_Beschreibung.xlsx
+++ b/Dokumente/02_Arbeitsbereich/04_Anforderungsspezifikation/Dialogbeschreibungen/Start_Fenster_Beschreibung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ANTJOOLLI\Desktop\SE_Projekt2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{71C7FB41-2389-4BB7-B554-26BA329B7E4A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B94AEF4-F7CD-4AFF-8836-F7CE96266F60}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1080" yWindow="0" windowWidth="20520" windowHeight="10635" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>Bezeichnung</t>
   </si>
@@ -76,6 +76,15 @@
   </si>
   <si>
     <t>Wechselt in das Dialogfenster zum Laden eines Spieles</t>
+  </si>
+  <si>
+    <t>Server IP</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>IP des Servers</t>
   </si>
 </sst>
 </file>
@@ -450,10 +459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -494,59 +503,65 @@
       </c>
       <c r="D2" s="5"/>
     </row>
-    <row r="3" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="5"/>
+    </row>
+    <row r="4" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>8</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>10</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="63" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="63" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
@@ -591,10 +606,10 @@
       <c r="D14" s="4"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
@@ -680,6 +695,12 @@
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
     </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
